--- a/inst/extdata/socio_economic/socio_economic_input.xlsx
+++ b/inst/extdata/socio_economic/socio_economic_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattj\Dropbox\Projects\EN2691 CEPopMod\main\CEMPRA\inst\extdata\socio_economic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC37938-7B07-4724-8012-E02F33466A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413F5BCB-ECD2-43CF-957C-A7EBEA49CBF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="699" activeTab="4" xr2:uid="{1AD852B4-9C7D-474C-A280-4470E2592A52}"/>
+    <workbookView xWindow="22932" yWindow="516" windowWidth="23256" windowHeight="12456" tabRatio="699" firstSheet="1" activeTab="6" xr2:uid="{1AD852B4-9C7D-474C-A280-4470E2592A52}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Actions" sheetId="1" r:id="rId1"/>
@@ -1661,16 +1661,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.25</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.25</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.25</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.25</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1807,16 +1807,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3012,16 +3012,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3182,16 +3182,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.5</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.5</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8482,7 +8482,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8700,7 +8700,7 @@
         <v>5000</v>
       </c>
       <c r="G7" s="9">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="H7" s="9">
         <v>20000</v>
@@ -9274,8 +9274,8 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9329,10 +9329,10 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>-0.25</v>
+        <v>-4</v>
       </c>
       <c r="E3">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -9347,10 +9347,10 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>-0.25</v>
+        <v>-4</v>
       </c>
       <c r="E4">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -9365,10 +9365,10 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>-0.25</v>
+        <v>-4</v>
       </c>
       <c r="E5">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -9382,10 +9382,10 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>-0.25</v>
+        <v>-4</v>
       </c>
       <c r="E6">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9403,7 +9403,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9527,8 +9527,8 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9582,10 +9582,10 @@
         <v>0.5</v>
       </c>
       <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
         <v>0</v>
-      </c>
-      <c r="E3">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -9599,10 +9599,10 @@
         <v>0.5</v>
       </c>
       <c r="D4">
+        <v>-2</v>
+      </c>
+      <c r="E4">
         <v>0</v>
-      </c>
-      <c r="E4">
-        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -9616,10 +9616,10 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>-0.5</v>
+        <v>-3</v>
       </c>
       <c r="E5">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -9633,10 +9633,10 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>-0.5</v>
+        <v>-3</v>
       </c>
       <c r="E6">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9778,7 +9778,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E3">
         <v>100</v>
@@ -9845,12 +9845,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9998,15 +9995,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CA07873-0FD5-45A1-B17B-248E491F3F34}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72DE81FF-AA4E-454F-9486-E6DCC5C8CF30}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="40ccca9c-0b7e-4ba6-a758-0e8a1fa03b03"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10030,17 +10038,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72DE81FF-AA4E-454F-9486-E6DCC5C8CF30}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CA07873-0FD5-45A1-B17B-248E491F3F34}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="40ccca9c-0b7e-4ba6-a758-0e8a1fa03b03"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/inst/extdata/socio_economic/socio_economic_input.xlsx
+++ b/inst/extdata/socio_economic/socio_economic_input.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattj\Dropbox\Projects\EN2691 CEPopMod\main\CEMPRA\inst\extdata\socio_economic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413F5BCB-ECD2-43CF-957C-A7EBEA49CBF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F8126B-36C5-4948-B82A-15262E5295C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="516" windowWidth="23256" windowHeight="12456" tabRatio="699" firstSheet="1" activeTab="6" xr2:uid="{1AD852B4-9C7D-474C-A280-4470E2592A52}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="699" xr2:uid="{1AD852B4-9C7D-474C-A280-4470E2592A52}"/>
   </bookViews>
   <sheets>
-    <sheet name="Management Actions" sheetId="1" r:id="rId1"/>
-    <sheet name="Location Implementation" sheetId="5" r:id="rId2"/>
-    <sheet name="Location Size Attributes" sheetId="13" r:id="rId3"/>
-    <sheet name="Stressor Reduction" sheetId="7" r:id="rId4"/>
-    <sheet name="SR1" sheetId="8" r:id="rId5"/>
-    <sheet name="SR2" sheetId="9" r:id="rId6"/>
-    <sheet name="SR3" sheetId="10" r:id="rId7"/>
-    <sheet name="SR4" sheetId="14" r:id="rId8"/>
-    <sheet name="SR5" sheetId="11" r:id="rId9"/>
+    <sheet name="README" sheetId="15" r:id="rId1"/>
+    <sheet name="Management Actions" sheetId="1" r:id="rId2"/>
+    <sheet name="Location Implementation" sheetId="5" r:id="rId3"/>
+    <sheet name="Location Size Attributes" sheetId="13" r:id="rId4"/>
+    <sheet name="Stressor Reduction" sheetId="7" r:id="rId5"/>
+    <sheet name="SR1" sheetId="8" r:id="rId6"/>
+    <sheet name="SR2" sheetId="9" r:id="rId7"/>
+    <sheet name="SR3" sheetId="10" r:id="rId8"/>
+    <sheet name="SR4" sheetId="14" r:id="rId9"/>
+    <sheet name="SR5" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -140,6 +141,58 @@
         </r>
       </text>
     </comment>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{70380E1E-FB5C-4BD9-8AE4-404BC6AA46EC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Bulk Discount Units Threshold (Level 1): Unit threshold required to activate Level 1 cost multiplier (e.g., 10).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{71ECEC9A-9912-4332-84F5-67FF6C0DEE80}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Bulk Discount Price Multiplier (Level 1): Mean cost multiplier once Level 1 threshold is achieved. Value is used to multiply unit cost. For example, a value of 0.80 would multiply the unit price by 0.8, resulting in a 20% savings on a per unit basis.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{A66813E8-A356-4F25-AA85-9BD44D4C8565}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Bulk Discount Units Threshold (Level 2): Unit threshold required to activate Level 2 cost multiplier.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{FF6194BE-354A-4E0E-8715-82C977188C65}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Bulk Discount Price Multiplier (Level 1): Mean cost multiplier once Level 1 threshold is achieved. Value is used to multiply unit cost. For example, a value of 0.80 would multiply the unit price by 0.8, resulting in a 20% savings on a per unit basis.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A5" authorId="0" shapeId="0" xr:uid="{EAB02182-F184-4067-926A-2439EBD0B689}">
       <text>
         <r>
@@ -200,6 +253,108 @@
             <family val="2"/>
           </rPr>
           <t>Name of the management action referenced from the Management Actions input worksheet. Ensure spelling/punctuation matches between worksheets. Include multiple rows for each management action to be applied at a given location.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{0EB3A264-AC18-4FEB-8B81-01CB95C257B3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Representative Measurement Unit: Optional (column can be left blank). The measurement unit from the Management Actions worksheet for the target restoration action type is repeated here for convenience (and personal reference when filling out the spreadsheet</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{AFC80D47-2EB0-438F-BDAE-7D82248BE618}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mean Number of Units Restored (i.e., area in m2, number of BDAs, etc.): Provide a numeric value using the measurement units that reference the specific restoration action type (e.g., number of BDAs to install, kilometres of stream to implement riparian planting, etc.). Try to define a mean or average value for the given location.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{F823856F-0993-4349-8F59-5A37128295F5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SD Number of Units: Optionally, users can define uncertainty in the level of restoration action to introduce stochasticity into the simulation. Set this value to zero to reference the mean value without stochasticity.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{E8F29FE3-6DC3-4D3B-AB08-05CBDABA5998}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lower Limit for Number of Units: Define the lower limit for stochastic simulations.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{C01773D0-E658-4F80-A74A-2D761C4701B5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Matthew Bayly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+• Upper Limit of Cost per Unit: Define the upper limit for stochastic simulations.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{97E3A350-09AF-4E83-9409-ECA3547B2EF7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Location Cost Multiplier (optional): Optionally define a location cost multiplier for a specific location. This column should only be used if it is believed that a specific restoration action will be more costly (or significantly cheaper) if applied at a specific location (e.g., one with poor vs. good access, on-site building materials, etc.). The column can be left blank if reference unit costs are considered accurate. Any location cost multiplier will be used to adjust the 'Mean Cost per Unit' (in the Management Actions worksheet) at the specific location (similar to the “Bulk discount multiplier”). For example, to reduce cost by 10%, set the location cost multiplier to 0.9 ('Mean Cost per Unit' * 0.9 = a 10% discount, or 90% of the original cost); to increase cost, set the value to something greater than 1 (e.g., a value of 1.2 will increase costs by 20% at a given location).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{F36323BA-B799-4481-8FEC-D7E0056CACEB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Location Effect Multiplier (optional): Optionally define a location effect multiplier for a specific location. This column should only be used if it is believed that a specific restoration action will be significantly more or less effective at a given location. We don’t expect this to be a common feature. However, if it’s decided that a certain management action would only be half as effective at location relative to other locations, then use a value of 0.5. Conversely, if a management action is expected to be twice as effective at a given location, then a value of 2 could be provided. The location effect multiplier will be applied to the mean number of units restored. </t>
         </r>
       </text>
     </comment>
@@ -472,7 +627,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="82">
   <si>
     <t>km</t>
   </si>
@@ -906,6 +1061,223 @@
       <t>(e.g., km of riparian planted per km of channel, LWD placements/km, BDAs/km). These metrics combine the absolute quantity of restoration and scale it by a location weighting factor to produced length or area-based metrics. For example, the total number of LWD placements at a location will commonly be divided by the total stream length at the location to convert # of LWD placements into # LWD placements per km of stream. Expressing restoration action in terms of densities makes it easier to define global stressor reduction functions across restoration scenarios.</t>
     </r>
   </si>
+  <si>
+    <t>Instructions for completing the Socioeconomic Input Workbook:</t>
+  </si>
+  <si>
+    <t>General rules:</t>
+  </si>
+  <si>
+    <t>- Leave NA cells blank</t>
+  </si>
+  <si>
+    <t>- Do not use special characters in management action, stressor, or location names</t>
+  </si>
+  <si>
+    <t>- Complete worksheets in order (Management Actions &gt; Location Implementation &gt; Location Size Attributes &gt; Stressor Reduction &gt; SR#)</t>
+  </si>
+  <si>
+    <t>- Spelling and naming of management actions should be consistent throughout all workbooks</t>
+  </si>
+  <si>
+    <t>- Names and IDs should be consistent across input workbooks</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Management Actions: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Provides an overview of the management interventions that have been shortlisted for evaluation. This workbook is used to define action-specific attributes such as the cost measurement unit and cost per unit for each management action type.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Location Implementation:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This workbook defines the magnitude of the proposed management actions for each location. Each line in the workbook provides attributes for each specific management action applied to each specific location (i.e., the level of intervention by tributary or reach, depending on the scale at which locations are defined). The workbook also contains estimates for the relative size of each location (with respect to each management action type).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Location Size Attributes:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Cumulative effects modelling with the Joe Model focuses on the relative status and condition among user-defined polygons (e.g., watersheds), but it does not explicitly consider habitat area or the size of each polygon. This worksheet allows users to specify location-specific size and area attributes.  Defining these attributes becomes important when evaluating stressor reduction from a given intervention, since the habitat stressor is usually expressed as percent loss or gain relative to the total area of habitat available in a polygon (location). </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stressor Reduction:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The stressor reduction workbook defines the relationship between each management action type and stressor levels. Each row in the stressor reduction workbook must have a unique identifier in the "Stress Reduction Curve ID" column (e.g., SR1, SR2, SR3… etc.) that links the restoration intervention to a particular stressor. Subsequent Excel worksheets should be labelled to match the IDs in this column (e.g., SR1, SR2… etc.). The "SR" "#" worksheets define the functional relationships between each stressor and restoration action.   </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">o   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SR1: Action:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Riparian Planting" and Stressor: "August Stream Temperature".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">o   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SR2: Action:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Riparian Planting" and Stressor: "Riparian Habitat Condition".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">o   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SR3: Action:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Off Channel Habitat Creation" and Stressor: "Habitat Loss".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SR#:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> …</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -914,7 +1286,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1077,8 +1449,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1157,8 +1536,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1387,11 +1772,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1568,6 +1993,33 @@
     <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8132,6 +8584,204 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C69CEF34-FD6D-4ED9-913F-6158637ED043}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="B1:C19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="161.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="63"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="64"/>
+      <c r="C3" s="65"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="65"/>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="65"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="65"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="65"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="65"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="65"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="68"/>
+      <c r="C10" s="65"/>
+    </row>
+    <row r="11" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="65"/>
+    </row>
+    <row r="12" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B12" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="65"/>
+    </row>
+    <row r="13" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B13" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="65"/>
+    </row>
+    <row r="14" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B14" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="65"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="65"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="65"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="65"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="65"/>
+    </row>
+    <row r="19" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="71"/>
+      <c r="C19" s="72"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A568DDA5-525A-4612-9574-031BF4768BDE}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="31.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>-80</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>-100</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B68BAF-E2AF-4D57-8204-1A8FDBB67155}">
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
@@ -8139,7 +8789,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8474,15 +9124,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F497A7C-9102-4575-AEF0-13450149DE70}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8720,7 +9370,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="H8" s="60"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
@@ -8732,7 +9382,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="H9" s="60"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
@@ -8744,7 +9394,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="H10" s="60"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
@@ -8756,7 +9406,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="60"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
@@ -8768,7 +9418,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="60"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
@@ -8780,7 +9430,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="60"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
@@ -8792,7 +9442,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="60"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
@@ -8804,7 +9454,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="H15" s="60"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
@@ -8816,7 +9466,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="H16" s="60"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
@@ -8828,7 +9478,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="H17" s="60"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
@@ -8840,7 +9490,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="H18" s="60"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
@@ -8852,7 +9502,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="H19" s="60"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
@@ -8864,7 +9514,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="H20" s="60"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
@@ -8876,7 +9526,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="H21" s="60"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
@@ -8888,7 +9538,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="H22" s="60"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
@@ -8900,9 +9550,12 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="H23" s="60"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H24" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8915,7 +9568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFFE15C-0ACA-4076-8B41-8D962C8718A4}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -8923,7 +9576,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9101,7 +9754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2999B6AC-6553-4BBE-BA61-F6430CA80920}">
   <sheetPr>
     <tabColor rgb="FFFF9999"/>
@@ -9109,7 +9762,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9267,7 +9920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01875BA-1312-4FB2-9F80-FEE589D26DA3}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -9275,7 +9928,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9395,7 +10048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8B78A3-E114-4DB2-A6D3-7D4F92679927}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -9403,7 +10056,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9520,14 +10173,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89B3B74-CD28-4D28-9EC2-626DAC4462A3}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -9645,7 +10298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46650B7-42D3-4241-9DA9-4FBC4CF011B7}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -9653,7 +10306,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9770,84 +10423,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A568DDA5-525A-4612-9574-031BF4768BDE}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.5546875" customWidth="1"/>
-    <col min="2" max="2" width="31.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>100</v>
-      </c>
-      <c r="B3">
-        <v>-80</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>-100</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9995,26 +10577,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72DE81FF-AA4E-454F-9486-E6DCC5C8CF30}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CA07873-0FD5-45A1-B17B-248E491F3F34}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="40ccca9c-0b7e-4ba6-a758-0e8a1fa03b03"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10038,9 +10609,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CA07873-0FD5-45A1-B17B-248E491F3F34}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72DE81FF-AA4E-454F-9486-E6DCC5C8CF30}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="40ccca9c-0b7e-4ba6-a758-0e8a1fa03b03"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>